--- a/html/Specialsystemer_excel.XLSX
+++ b/html/Specialsystemer_excel.XLSX
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E95EF1-78C6-47D7-B5C6-9B76A0D064AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C05E4D-5DE8-4602-BAD7-91004C3850A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 12-05-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 16-05-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Specialsystemer">'Opdateret d. 12-05-2025'!$A$1:$BD$130</definedName>
+    <definedName name="Specialsystemer">'Opdateret d. 16-05-2025'!$A$1:$BD$130</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>

--- a/html/Specialsystemer_excel.XLSX
+++ b/html/Specialsystemer_excel.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566B8C5E-38FA-45A1-B2FC-AE7EF705F1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A451D1E-DA8A-4E7F-8B6F-6DFE377B6C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
